--- a/WorkBot/refactor/data/orders/Performance Food/CompletedOrders/Performance Food_Triphammer_2025-07-25.xlsx
+++ b/WorkBot/refactor/data/orders/Performance Food/CompletedOrders/Performance Food_Triphammer_2025-07-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,39 +667,39 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NK128</t>
+          <t>AKJ04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Natalie's - Orchid Island - Blood Orange Juice</t>
+          <t>Joe Tea - Black Unsweetened</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.83</t>
+          <t>21.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21.83</t>
+          <t>43.90</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AKJ04</t>
+          <t>AKH98</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joe Tea - Black Unsweetened</t>
+          <t>Joe Tea - Ginseng Green</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,12 +721,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AKH98</t>
+          <t>AKJ06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Joe Tea - Ginseng Green</t>
+          <t>Joe Tea - Half &amp; Half</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -748,12 +748,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AKJ06</t>
+          <t>AKH96</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Joe Tea - Half &amp; Half</t>
+          <t>Joe Tea - Lemon</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,12 +775,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AKH96</t>
+          <t>AKJ02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Joe Tea - Lemon</t>
+          <t>Joe Tea - Peach</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,12 +802,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AKJ02</t>
+          <t>TN374</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Joe Tea - Peach</t>
+          <t>Natalie's - Lemonade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -817,12 +817,1227 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>43.90</t>
+          <t>18.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AH252</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Juice</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TN454</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Mango</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TN362</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Pineapple</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TN380</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Natalie's - Strawberry Lemonade</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>K1570</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Buttermilk</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>25728</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pasta - Penne</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10600</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Can - Great Northern Bean</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22096</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Can - Tomato - Whole Peeled</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>81692</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Can - Garbanzo Beans</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HB946</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Peppers - Banana</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FA300</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sundried Tomatoes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20115</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Worcestershire Sauce</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>25460</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hard Boiled Egg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>124.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NH016</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Provolone (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>200.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AV906</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Swiss (Sliced)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>227.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HH264</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Muenster (Sliced)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NJ502</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pepper Jack (Sliced)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>53.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>159.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CF096</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fresh Mozz (Sliced)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>100.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Prosciutto</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>60.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>60.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>42498</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ham (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>189.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DT820</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1101.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>83632</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Roast Beef (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>111.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>447.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>E3556</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pastrami (Sliced)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>62.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>248.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WF580</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Corned Beef (Sliced)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>61.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>123.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HN732</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Avocado - Hand Scooped</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>57.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>345.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>J2280</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yogurt BIB</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>150.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GC902</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Chicken Breast - Random</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>141.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>282.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DR432</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Chicken Breast (8oz)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ABK40</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Chicken Wing - Fully Cooked</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>142.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>142.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CG686</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Chicken Breast - Retail (cooked)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>363.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>EE944</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pepperoni (Sliced)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NG746</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Wrap - Garlic Herb (12')</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CF288</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Peas - FRZ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CF284</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Corn - FRZ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ABK44</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Chicken Tenders - (1oz)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>133.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>V8852</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Chicken Filet - Breaded 4 oz (Raw)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>192.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50778</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sausage - Patty (1.5oz)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>283.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>FK824</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Anchovies</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>78296</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Butternut Squash - Fresh</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>30.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>G5010</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Carrots - Jumbo Fresh</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>78270</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Cauliflower - Fresh</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>30.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NH166</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Lettuce - Arcadian Blend</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>68.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B5158</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Pepper - Green Bell X-Large</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>112.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>E5992</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Pepper - Red Bell Fresh</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>35.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>35.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>J5882</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Potato - Chef</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.20</t>
         </is>
       </c>
     </row>
